--- a/data/parechinus_data.xlsx
+++ b/data/parechinus_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee\OneDrive - University of Cape Town\OneDrive - University of Cape Town\msc_thesis\parechinus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257F0331-95CD-45E2-A82F-338827A1AB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B7B181-BFEA-438A-AE34-0A4435563509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A81C79A8-648D-430B-A74C-FF6F52AE28D7}"/>
   </bookViews>
@@ -504,7 +504,7 @@
   <dimension ref="A1:J2569"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -62878,21 +62878,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DEAC778B8D440E41BD63D4A6C75DE03B" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c52ad93ce32cfb4566894f3753cc432d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dbb7807b-0bfa-4867-be99-c973128321c8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f1cc536098c9f4c9eab4fb3c6a16c457" ns3:_="">
     <xsd:import namespace="dbb7807b-0bfa-4867-be99-c973128321c8"/>
@@ -63074,31 +63059,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A369B060-A48F-4EBD-A699-64F037E18BD4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="dbb7807b-0bfa-4867-be99-c973128321c8"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E358143B-CBA0-4A09-BD8D-F023C8DB3296}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{579DDF75-0468-4482-B13C-53AA8ED9676F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -63114,4 +63090,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E358143B-CBA0-4A09-BD8D-F023C8DB3296}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A369B060-A48F-4EBD-A699-64F037E18BD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="dbb7807b-0bfa-4867-be99-c973128321c8"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>